--- a/privilages.xlsx
+++ b/privilages.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
   <si>
     <t>Action</t>
   </si>
@@ -88,6 +88,12 @@
   </si>
   <si>
     <t>DOCENT</t>
+  </si>
+  <si>
+    <t>Eigen gegevens bewerken</t>
+  </si>
+  <si>
+    <t>Eigen gegevens bekijken</t>
   </si>
 </sst>
 </file>
@@ -477,10 +483,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E20"/>
+  <dimension ref="A1:E22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -509,7 +515,7 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="B2" s="1"/>
       <c r="C2" s="2"/>
@@ -518,7 +524,7 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="B3" s="1"/>
       <c r="C3" s="2"/>
@@ -527,43 +533,43 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B4" s="1"/>
-      <c r="C4" s="2"/>
+      <c r="C4" s="1"/>
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B5" s="1"/>
-      <c r="C5" s="2"/>
-      <c r="D5" s="2"/>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
       <c r="E5" s="2"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>2</v>
+        <v>19</v>
       </c>
       <c r="B6" s="1"/>
       <c r="C6" s="2"/>
-      <c r="D6" s="1"/>
+      <c r="D6" s="2"/>
       <c r="E6" s="2"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>3</v>
+        <v>20</v>
       </c>
       <c r="B7" s="1"/>
       <c r="C7" s="2"/>
-      <c r="D7" s="1"/>
+      <c r="D7" s="2"/>
       <c r="E7" s="2"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B8" s="1"/>
       <c r="C8" s="2"/>
@@ -572,25 +578,25 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>5</v>
-      </c>
-      <c r="B9" s="2"/>
+        <v>3</v>
+      </c>
+      <c r="B9" s="1"/>
       <c r="C9" s="2"/>
-      <c r="D9" s="2"/>
+      <c r="D9" s="1"/>
       <c r="E9" s="2"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>7</v>
-      </c>
-      <c r="B10" s="2"/>
+        <v>4</v>
+      </c>
+      <c r="B10" s="1"/>
       <c r="C10" s="2"/>
-      <c r="D10" s="2"/>
+      <c r="D10" s="1"/>
       <c r="E10" s="2"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
@@ -599,7 +605,7 @@
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
@@ -608,25 +614,25 @@
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>9</v>
-      </c>
-      <c r="B13" s="1"/>
-      <c r="C13" s="1"/>
+        <v>6</v>
+      </c>
+      <c r="B13" s="2"/>
+      <c r="C13" s="2"/>
       <c r="D13" s="2"/>
       <c r="E13" s="2"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>10</v>
-      </c>
-      <c r="B14" s="1"/>
+        <v>8</v>
+      </c>
+      <c r="B14" s="2"/>
       <c r="C14" s="2"/>
       <c r="D14" s="2"/>
       <c r="E14" s="2"/>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
@@ -635,25 +641,25 @@
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B16" s="1"/>
-      <c r="C16" s="1"/>
+      <c r="C16" s="2"/>
       <c r="D16" s="2"/>
       <c r="E16" s="2"/>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B17" s="1"/>
-      <c r="C17" s="2"/>
+      <c r="C17" s="1"/>
       <c r="D17" s="2"/>
       <c r="E17" s="2"/>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
@@ -662,21 +668,39 @@
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B19" s="1"/>
-      <c r="C19" s="1"/>
+      <c r="C19" s="2"/>
       <c r="D19" s="2"/>
       <c r="E19" s="2"/>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
       <c r="D20" s="2"/>
       <c r="E20" s="2"/>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>15</v>
+      </c>
+      <c r="B21" s="1"/>
+      <c r="C21" s="1"/>
+      <c r="D21" s="2"/>
+      <c r="E21" s="2"/>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>16</v>
+      </c>
+      <c r="B22" s="1"/>
+      <c r="C22" s="1"/>
+      <c r="D22" s="2"/>
+      <c r="E22" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
